--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Spring.011320.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Spring.011320.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -775,12 +775,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -969,12 +969,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1277,12 +1277,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1353,12 +1353,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1505,12 +1505,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1923,12 +1923,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2037,12 +2037,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2151,12 +2151,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2379,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3029,12 +3029,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3409,12 +3409,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4443,12 +4443,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4747,12 +4747,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4861,12 +4861,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4975,12 +4975,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5013,12 +5013,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6267,12 +6267,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6917,12 +6917,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6955,12 +6955,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6993,12 +6993,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7415,12 +7415,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7491,12 +7491,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8137,12 +8137,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8175,12 +8175,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8289,12 +8289,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8593,12 +8593,12 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8821,12 +8821,12 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8935,12 +8935,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9011,12 +9011,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9353,12 +9353,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9391,12 +9391,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9619,12 +9619,12 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10607,12 +10607,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10835,12 +10835,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11177,12 +11177,12 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11215,12 +11215,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11519,12 +11519,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11595,12 +11595,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11899,12 +11899,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12663,12 +12663,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12967,12 +12967,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13271,12 +13271,12 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -13423,12 +13423,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13499,12 +13499,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13537,12 +13537,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13651,12 +13651,12 @@
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13841,12 +13841,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14525,12 +14525,12 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14563,12 +14563,12 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14791,12 +14791,12 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15171,12 +15171,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15247,12 +15247,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15399,12 +15399,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15437,12 +15437,12 @@
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15703,12 +15703,12 @@
       <c r="H401" t="inlineStr"/>
       <c r="I401" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15893,12 +15893,12 @@
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16277,12 +16277,12 @@
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16547,12 +16547,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16661,12 +16661,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16851,12 +16851,12 @@
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18265,12 +18265,12 @@
       <c r="H468" t="inlineStr"/>
       <c r="I468" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18797,12 +18797,12 @@
       <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19063,12 +19063,12 @@
       <c r="H489" t="inlineStr"/>
       <c r="I489" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19329,12 +19329,12 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19443,12 +19443,12 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19823,12 +19823,12 @@
       <c r="H509" t="inlineStr"/>
       <c r="I509" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20245,12 +20245,12 @@
       <c r="H520" t="inlineStr"/>
       <c r="I520" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21051,12 +21051,12 @@
       <c r="H541" t="inlineStr"/>
       <c r="I541" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21165,12 +21165,12 @@
       <c r="H544" t="inlineStr"/>
       <c r="I544" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21241,12 +21241,12 @@
       <c r="H546" t="inlineStr"/>
       <c r="I546" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21811,12 +21811,12 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21887,12 +21887,12 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22001,12 +22001,12 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22569,12 +22569,12 @@
       <c r="H581" t="inlineStr"/>
       <c r="I581" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22645,12 +22645,12 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22683,12 +22683,12 @@
       <c r="H584" t="inlineStr"/>
       <c r="I584" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
